--- a/Descrição_use_cases.xlsx
+++ b/Descrição_use_cases.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UM\Informática\3º Ano\1º Semestre\DSS\Trabalho Prático\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UM\Informática\3º Ano\1º Semestre\DSS\dss-1617\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
   <si>
     <r>
       <t xml:space="preserve">  </t>
@@ -98,6 +98,9 @@
   <si>
     <t>Excepção 1               (passo X)
 [caso onde ocorre a excepção]</t>
+  </si>
+  <si>
+    <t>Name</t>
   </si>
 </sst>
 </file>
@@ -141,13 +144,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -463,10 +469,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A4:D15"/>
+  <dimension ref="A3:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -478,6 +484,11 @@
     <col min="5" max="16384" width="8.83984375" style="1"/>
   </cols>
   <sheetData>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="1" t="s">
         <v>0</v>
@@ -551,5 +562,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Descrição_use_cases.xlsx
+++ b/Descrição_use_cases.xlsx
@@ -9,10 +9,21 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8808"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8808" tabRatio="856" firstSheet="4" activeTab="11"/>
   </bookViews>
   <sheets>
-    <sheet name="Folha1" sheetId="1" r:id="rId1"/>
+    <sheet name="Regista Apartamento" sheetId="7" r:id="rId1"/>
+    <sheet name="Adicionar Morador" sheetId="1" r:id="rId2"/>
+    <sheet name="Remover Morador" sheetId="3" r:id="rId3"/>
+    <sheet name="Alterar Dados Morador" sheetId="4" r:id="rId4"/>
+    <sheet name="Alterar Renda Morador" sheetId="6" r:id="rId5"/>
+    <sheet name="Adicionar Despesa Recorrente" sheetId="8" r:id="rId6"/>
+    <sheet name="Adicionar Despesa Extraord." sheetId="9" r:id="rId7"/>
+    <sheet name="Ver Despesas por Pagar" sheetId="12" r:id="rId8"/>
+    <sheet name="Ver Despesas Pagas" sheetId="13" r:id="rId9"/>
+    <sheet name="Fazer Autenticação" sheetId="11" r:id="rId10"/>
+    <sheet name="Pagar Despesa" sheetId="10" r:id="rId11"/>
+    <sheet name="Carregar Conta" sheetId="5" r:id="rId12"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -24,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="107">
   <si>
     <r>
       <t xml:space="preserve">  </t>
@@ -96,18 +107,321 @@
     <t>System Response</t>
   </si>
   <si>
-    <t>Excepção 1               (passo X)
-[caso onde ocorre a excepção]</t>
-  </si>
-  <si>
     <t>Name</t>
+  </si>
+  <si>
+    <t>Adicionar Morador</t>
+  </si>
+  <si>
+    <t>Adiciona um morador ao apartamento</t>
+  </si>
+  <si>
+    <t>O número de moradores no apartamento é incrementado</t>
+  </si>
+  <si>
+    <t>Senhorio autenticado</t>
+  </si>
+  <si>
+    <t>Fornece dados do morador</t>
+  </si>
+  <si>
+    <t>Regista dados</t>
+  </si>
+  <si>
+    <t>Devolve dados de autenticação do novo morador</t>
+  </si>
+  <si>
+    <t>Valida dados</t>
+  </si>
+  <si>
+    <t>Excepção 1               (passo 2)
+[morador já existe no sistema]</t>
+  </si>
+  <si>
+    <t>Indica que o morador já existe</t>
+  </si>
+  <si>
+    <t>Excepção 2               (passo 2)
+[dados inválidos]</t>
+  </si>
+  <si>
+    <t>Indica que os dados inseridos são inválidos</t>
+  </si>
+  <si>
+    <t>Regressa a 1</t>
+  </si>
+  <si>
+    <t>Incrementa número de moradores</t>
+  </si>
+  <si>
+    <t>Cria dados de autenticação</t>
+  </si>
+  <si>
+    <t>  Flow of Events</t>
+  </si>
+  <si>
+    <t>Remover Morador</t>
+  </si>
+  <si>
+    <t>Remove um morador do sistema</t>
+  </si>
+  <si>
+    <t>Decrementa o número de moradores</t>
+  </si>
+  <si>
+    <t>Elimina dados do morador</t>
+  </si>
+  <si>
+    <t>Informa que o morador foi eliminado</t>
+  </si>
+  <si>
+    <t>Excepção 1               (passo 2)
+[morador não existe no sistema]</t>
+  </si>
+  <si>
+    <t>Indica que o morador não existe</t>
+  </si>
+  <si>
+    <t>Alterar Dados Morador</t>
+  </si>
+  <si>
+    <t>Alterar os dados já guardados de um morador</t>
+  </si>
+  <si>
+    <t>Fornece novos dados</t>
+  </si>
+  <si>
+    <t>Altera dados</t>
+  </si>
+  <si>
+    <t>Senhorio autenticado e existem moradores no sistema</t>
+  </si>
+  <si>
+    <t>Senhorio autenticado e  existem moradores no sistema</t>
+  </si>
+  <si>
+    <t>Indica que os dados foram alterados</t>
+  </si>
+  <si>
+    <t>Valida novos dados</t>
+  </si>
+  <si>
+    <t>Excepção 3               (passo 4)
+[novos dados inválidos]</t>
+  </si>
+  <si>
+    <t>Indica que os novos dados inseridos são inválidos</t>
+  </si>
+  <si>
+    <t>O número de moradores é decrementado</t>
+  </si>
+  <si>
+    <t>Alterar Renda Morador</t>
+  </si>
+  <si>
+    <t>Altera a renda de um morador</t>
+  </si>
+  <si>
+    <t>Adicionar Despesa Recorrente</t>
+  </si>
+  <si>
+    <t>Adiciona uma despesa recorrente ao sistema</t>
+  </si>
+  <si>
+    <t>Administrador autenticado</t>
+  </si>
+  <si>
+    <t>Indica que a despesa foi registada</t>
+  </si>
+  <si>
+    <t>Regista dados da despesa para cada morador</t>
+  </si>
+  <si>
+    <t>Regressa a 2</t>
+  </si>
+  <si>
+    <t>Excepção 1               (passo 3)
+[morador(es) não existe(m) no sistema]</t>
+  </si>
+  <si>
+    <t>Indica que o(s) morador(es) não existe(m)</t>
+  </si>
+  <si>
+    <t>Adicionar Despesa Extraordinária</t>
+  </si>
+  <si>
+    <t>Adiciona uma despesa extraordinária ao sistema</t>
+  </si>
+  <si>
+    <t>Fornece morador(es)</t>
+  </si>
+  <si>
+    <t>Valida morador(es)</t>
+  </si>
+  <si>
+    <t>Fornece valor e nome</t>
+  </si>
+  <si>
+    <t>Fornece valor, nome, tipo e periodicidade</t>
+  </si>
+  <si>
+    <t>Regista Apartamento</t>
+  </si>
+  <si>
+    <t>Regista um apartamento no sistema</t>
+  </si>
+  <si>
+    <t>Fornece valor total da renda</t>
+  </si>
+  <si>
+    <t>Regista o apartamento</t>
+  </si>
+  <si>
+    <t>Fornece fração da renda do morador</t>
+  </si>
+  <si>
+    <t>Regista fração da renda do morador</t>
+  </si>
+  <si>
+    <t>Atualiza fração dos restantes moradores, caso existam</t>
+  </si>
+  <si>
+    <t>Altera fração do morador</t>
+  </si>
+  <si>
+    <t>Indica nova fração do morador</t>
+  </si>
+  <si>
+    <t>Indica que as frações foram atualizadas</t>
+  </si>
+  <si>
+    <t>Ver Despesas por Pagar</t>
+  </si>
+  <si>
+    <t>Apresenta lista das despesas por pagar</t>
+  </si>
+  <si>
+    <t>Seleciona os moradores</t>
+  </si>
+  <si>
+    <t>Apresenta os nomes dos moradores</t>
+  </si>
+  <si>
+    <t>Apresenta a lista das despesas dos moradores</t>
+  </si>
+  <si>
+    <t>Apresenta lista das despesas pagas</t>
+  </si>
+  <si>
+    <t>Ver Despesas Pagas</t>
+  </si>
+  <si>
+    <t>Apresenta a lista das despesas pagas pelos moradores</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Senhorio, administrador ou morador autenticado </t>
+  </si>
+  <si>
+    <t>Fazer Autenticação</t>
+  </si>
+  <si>
+    <t>Permite a um ator fazer a sua autenticação</t>
+  </si>
+  <si>
+    <t>Fornece dados de autenticação</t>
+  </si>
+  <si>
+    <t>Valida dados de autenticação</t>
+  </si>
+  <si>
+    <t>Indica que o ator está autenticado</t>
+  </si>
+  <si>
+    <t>Excepção 1               (passo 2)
+[dados de autenticação inválidos]</t>
+  </si>
+  <si>
+    <t>Indica que os dados de autenticação são inválidos</t>
+  </si>
+  <si>
+    <t>Pagar Despesa</t>
+  </si>
+  <si>
+    <t>Permite a um morador pagar uma despesa</t>
+  </si>
+  <si>
+    <t>Morador encontra-se autenticado e tem despesas por pagar</t>
+  </si>
+  <si>
+    <t>Valida dados da despesa</t>
+  </si>
+  <si>
+    <t>Indica o dados da despesa</t>
+  </si>
+  <si>
+    <t>Apresenta valor da despesa</t>
+  </si>
+  <si>
+    <t>Paga a despesa</t>
+  </si>
+  <si>
+    <t>Valida pagamento</t>
+  </si>
+  <si>
+    <t>Excepção 1               (passo 5)
+[morador não tem saldo suficiente]</t>
+  </si>
+  <si>
+    <t>Informa que morador não tem saldo suficiente para pagar despesa</t>
+  </si>
+  <si>
+    <t>Remove despesa da lista de despesas por pagar do morador</t>
+  </si>
+  <si>
+    <t>Adiciona despesa à lista de despesas pagas do morador</t>
+  </si>
+  <si>
+    <t>Verifica saldo da conta</t>
+  </si>
+  <si>
+    <t>Informa que a despesa foi paga</t>
+  </si>
+  <si>
+    <t>Decrementa valor da despesa do saldo da conta</t>
+  </si>
+  <si>
+    <t>Carregar Conta</t>
+  </si>
+  <si>
+    <t>Permite a um morador carregar a sua conta</t>
+  </si>
+  <si>
+    <t>Morador encontra-se autenticado</t>
+  </si>
+  <si>
+    <t>Indica o valor que quer acrescentar à conta</t>
+  </si>
+  <si>
+    <t>Apresenta o saldo da conta</t>
+  </si>
+  <si>
+    <t>Regista o valor</t>
+  </si>
+  <si>
+    <t>Acrescenta o valor ao slado da conta</t>
+  </si>
+  <si>
+    <t>Informa que o saldo foi atualizado</t>
+  </si>
+  <si>
+    <t>Apresenta novo saldo da conta</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -123,6 +437,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -132,7 +454,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -140,11 +462,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -153,6 +490,29 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -469,96 +829,1733 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:D15"/>
+  <dimension ref="A3:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O13" sqref="O13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="1" max="1" width="15.15625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.83984375" style="5"/>
+    <col min="3" max="3" width="30.20703125" style="5" customWidth="1"/>
+    <col min="4" max="4" width="32.734375" style="5" customWidth="1"/>
+    <col min="5" max="16384" width="8.83984375" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C7" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="5">
+        <v>1</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B9" s="5">
+        <v>2</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="6"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="6"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="7"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:D14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="1" max="1" width="15.15625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.83984375" style="5"/>
+    <col min="3" max="3" width="34.7890625" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="39.9453125" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.83984375" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C7" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="5">
+        <v>1</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B9" s="5">
+        <v>2</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B10" s="5">
+        <v>3</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="6"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="6"/>
+      <c r="C12" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="72" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="B13" s="5">
+        <v>1</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B14" s="5">
+        <v>2</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:K19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="15.15625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.83984375" style="1"/>
-    <col min="3" max="3" width="30.20703125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="32.734375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="48.3671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="53.5234375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.83984375" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="C7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="1">
+        <v>1</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="K8" s="10"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="B9" s="1">
+        <v>2</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="B10" s="1">
+        <v>3</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11"/>
+      <c r="B11" s="1">
+        <v>4</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D11" s="10"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12"/>
+      <c r="B12" s="1">
+        <v>5</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13"/>
+      <c r="B13" s="1">
+        <v>6</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14"/>
+      <c r="B14" s="1">
+        <v>7</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15"/>
+      <c r="B15" s="1">
+        <v>8</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16"/>
+      <c r="B16" s="1">
+        <v>9</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17"/>
+      <c r="B17" s="1">
+        <v>10</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18"/>
+      <c r="C18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="72" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B19" s="1">
+        <v>1</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:D15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="1" max="1" width="15.15625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.83984375" style="5"/>
+    <col min="3" max="3" width="35.41796875" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.734375" style="5" customWidth="1"/>
     <col min="5" max="16384" width="8.83984375" style="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C7" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="5">
+        <v>1</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B9" s="5">
+        <v>2</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B10" s="5">
+        <v>3</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="6"/>
+      <c r="B11" s="5">
+        <v>4</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="6"/>
+      <c r="B12" s="5">
+        <v>5</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="6"/>
+      <c r="B13" s="5">
+        <v>6</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="6"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="7"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:F34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="1" max="1" width="20.15625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="8.83984375" style="5"/>
+    <col min="3" max="3" width="46.734375" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="43.83984375" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.83984375" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>7</v>
       </c>
     </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="4">
+        <v>1</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="4"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="B9" s="5">
+        <v>2</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="B10" s="5">
+        <v>3</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="6"/>
+      <c r="B11" s="5">
+        <v>4</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F11" s="10"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="B12" s="5">
+        <v>5</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="B13" s="5">
+        <v>6</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="B14" s="5">
+        <v>7</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="B15" s="5">
+        <v>8</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="B16" s="5">
+        <v>9</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B17" s="5">
+        <v>10</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="8"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="72" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19" s="5">
+        <v>1</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B20" s="5">
+        <v>2</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" s="8"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B22" s="5">
+        <v>1</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B23" s="5">
+        <v>2</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" s="8"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" s="7"/>
+    </row>
+    <row r="33" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A33" s="8"/>
+      <c r="B33" s="4"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="4"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A34" s="7"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:J18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="1" max="1" width="15.15625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.83984375" style="5"/>
+    <col min="3" max="3" width="48" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="43.83984375" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.83984375" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G6" s="5"/>
+    </row>
+    <row r="7" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="5">
+        <v>1</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B9" s="5">
+        <v>2</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B10" s="5">
+        <v>3</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B11" s="5">
+        <v>4</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="H11" s="10"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B12" s="5">
+        <v>5</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B13" s="5">
+        <v>6</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B14" s="5">
+        <v>7</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="8"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="72" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" s="5">
+        <v>1</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="J16" s="10"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="6"/>
+      <c r="B17" s="5">
+        <v>2</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="7"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:H22"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="1" max="1" width="15.15625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="8.83984375" style="5"/>
+    <col min="3" max="3" width="44.3125" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="39.5234375" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.83984375" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="5">
+        <v>1</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B9" s="5">
+        <v>2</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B10" s="5">
+        <v>3</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B11" s="5">
+        <v>4</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B12" s="5">
+        <v>5</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B13" s="5">
+        <v>6</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="8"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="72" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" s="5">
+        <v>1</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H15" s="10"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="7"/>
+      <c r="B16" s="5">
+        <v>2</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="8"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="5">
+        <v>1</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B19" s="5">
+        <v>2</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="8"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B21" s="5">
+        <v>1</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G21" s="10"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B22" s="5">
+        <v>2</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:H19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="1" max="1" width="15.15625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.83984375" style="5"/>
+    <col min="3" max="3" width="43.89453125" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="43.83984375" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.83984375" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="C7" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="5">
+        <v>1</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B9" s="5">
+        <v>2</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B10" s="5">
+        <v>3</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="6"/>
+      <c r="B11" s="5">
+        <v>4</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="6"/>
+      <c r="B12" s="5">
+        <v>5</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="H12" s="10"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="6"/>
+      <c r="B13" s="5">
+        <v>6</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="H13" s="10"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="8"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="72" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" s="5">
+        <v>1</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G15" s="10"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="7"/>
+      <c r="B16" s="5">
+        <v>2</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="8"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="5">
+        <v>1</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B19" s="5">
+        <v>2</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:L17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="1" max="1" width="19" style="5" customWidth="1"/>
+    <col min="2" max="2" width="8.83984375" style="5"/>
+    <col min="3" max="3" width="36.15625" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.47265625" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.83984375" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D5" s="12"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="5">
+        <v>1</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B9" s="5">
+        <v>2</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B10" s="5">
+        <v>3</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B11" s="5">
+        <v>4</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="6"/>
+      <c r="B12" s="5">
+        <v>5</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="8"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B14" s="5">
+        <v>1</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="H14" s="11"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="7"/>
+      <c r="B15" s="5">
+        <v>2</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17" spans="12:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="L17" s="10"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:L17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="1" max="1" width="19" style="5" customWidth="1"/>
+    <col min="2" max="2" width="8.83984375" style="5"/>
+    <col min="3" max="3" width="39" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.47265625" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.83984375" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="5">
+        <v>1</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B9" s="5">
+        <v>2</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B10" s="5">
+        <v>3</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B11" s="5">
+        <v>4</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="6"/>
+      <c r="B12" s="5">
+        <v>5</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="8"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B14" s="5">
+        <v>1</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="F14" s="10"/>
+      <c r="H14" s="11"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="7"/>
+      <c r="B15" s="5">
+        <v>2</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17" spans="12:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="L17" s="10"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:D13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="1" max="1" width="15.15625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.83984375" style="5"/>
+    <col min="3" max="3" width="40.26171875" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.83984375" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.83984375" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>67</v>
+      </c>
+    </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="5" t="s">
         <v>0</v>
       </c>
+      <c r="C4" s="5" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="1" t="s">
-        <v>1</v>
+      <c r="A5" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="5" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="C7" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7" s="1" t="s">
+      <c r="C7" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="1">
-        <v>1</v>
+      <c r="B8" s="5">
+        <v>1</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B9" s="1">
-        <v>2</v>
+      <c r="B9" s="5">
+        <v>2</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B10" s="1">
+      <c r="B10" s="5">
         <v>3</v>
       </c>
+      <c r="D10" s="5" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11"/>
+      <c r="A11" s="6"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12"/>
-      <c r="C12" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="72" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="2" t="s">
+      <c r="A12" s="6"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="7"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:I13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="1" max="1" width="15.15625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.83984375" style="5"/>
+    <col min="3" max="3" width="40.26171875" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="43.26171875" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.83984375" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B13" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B14" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B15" s="1">
+      <c r="C3" s="5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="C7" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7" s="10"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="5" t="s">
         <v>3</v>
       </c>
+      <c r="B8" s="5">
+        <v>1</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="B9" s="5">
+        <v>2</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="B10" s="5">
+        <v>3</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="I10" s="10"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="6"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="6"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
